--- a/ATP Assays/HNM 1 ATP Assay.xlsx
+++ b/ATP Assays/HNM 1 ATP Assay.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HSTC/ATP Assays/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{69DE6AC7-EA7C-42D9-8B88-AB532B80CF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BCCF4FA-0498-47C4-8367-E6C504B582DC}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{69DE6AC7-EA7C-42D9-8B88-AB532B80CF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E23C33-4AE8-4496-AB02-F9EC6D57CA93}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1320" windowWidth="19035" windowHeight="14880" activeTab="1" xr2:uid="{5CF07231-BA1A-4F3A-BF46-398947A2AC6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5CF07231-BA1A-4F3A-BF46-398947A2AC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="End point 1" sheetId="4" r:id="rId1"/>
     <sheet name="Results 1" sheetId="2" r:id="rId2"/>
-    <sheet name="End point 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Results 2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>User: USER</t>
   </si>
@@ -101,16 +99,10 @@
     <t>Luminescence</t>
   </si>
   <si>
-    <t>Time: 16:13:45</t>
-  </si>
-  <si>
     <t>Date: 19/04/2023</t>
   </si>
   <si>
     <t>Test Name: ATP Assay</t>
-  </si>
-  <si>
-    <t>Test ID: 1893</t>
   </si>
   <si>
     <t>Time: 16:08:10</t>
@@ -1214,765 +1206,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Results 2'!$H$13:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>155151.83333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123751.83333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90082.833333333328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74398.833333333328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49792.833333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26841.833333333332</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14389.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Results 2'!$I$13:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>937.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7432-4FAB-9B58-A799E9C053CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="606805296"/>
-        <c:axId val="606804880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="606805296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Absorbance</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="606804880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="606804880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Protein</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (mg/mL)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="606805296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Results 2'!$AA$5:$AA$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3 C</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 C</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1 C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3 D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2 D</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1 D</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Results 2'!$AB$5:$AB$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2049.7088840499996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1603.6702692277779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2422.5326156361111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2164.8818928444448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1728.0901256611112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2554.1028147666671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2865.0549221805559</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6F8-45A1-A83F-9E123871B1F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1938876208"/>
-        <c:axId val="1938869968"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1938876208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1938869968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1938869968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1938876208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2053,86 +1286,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2650,1025 +1803,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4234,87 +2368,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652208E8-3F36-4001-83B9-B6B3BA1E4F7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F3B972-B8E9-4D30-B0EC-BD1470FA15FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4655,22 +2708,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5059,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4CD958-CE04-4D83-B81E-1A8D2900EF9F}">
   <dimension ref="C1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y40"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5156,16 +3209,16 @@
         <v>26028</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
         <v>11</v>
@@ -5174,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.25">
@@ -5215,10 +3268,10 @@
         <v>31781</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -5283,10 +3336,10 @@
         <v>34221</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -5351,10 +3404,10 @@
         <v>34907</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -5381,7 +3434,7 @@
         <v>1878.7648722000001</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB5">
         <f>AVERAGE(Y3:Y8)</f>
@@ -5426,10 +3479,10 @@
         <v>39323</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -5456,7 +3509,7 @@
         <v>1713.3759512500001</v>
       </c>
       <c r="AA6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB6">
         <f>AVERAGE(Y9:Y14)</f>
@@ -5501,10 +3554,10 @@
         <v>39061</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -5531,7 +3584,7 @@
         <v>1617.8673552</v>
       </c>
       <c r="AA7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AB7">
         <f>AVERAGE(Y15:Y20)</f>
@@ -5576,10 +3629,10 @@
         <v>35959</v>
       </c>
       <c r="Q8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -5606,7 +3659,7 @@
         <v>1764.5651250000001</v>
       </c>
       <c r="AA8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB8">
         <f>AVERAGE(Y21:Y26)</f>
@@ -5651,10 +3704,10 @@
         <v>40968</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -5681,7 +3734,7 @@
         <v>2057.56961125</v>
       </c>
       <c r="AA9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB9">
         <f>AVERAGE(Y27:Y32)</f>
@@ -5690,10 +3743,10 @@
     </row>
     <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -5720,7 +3773,7 @@
         <v>1651.9380952000001</v>
       </c>
       <c r="AA10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB10">
         <f>AVERAGE(Y33:Y38)</f>
@@ -5732,10 +3785,10 @@
         <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -5762,7 +3815,7 @@
         <v>1397.83443405</v>
       </c>
       <c r="AA11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB11">
         <f>AVERAGE(Y39:Y40)</f>
@@ -5783,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -5792,10 +3845,10 @@
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -5849,10 +3902,10 @@
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S13">
         <v>2</v>
@@ -5906,10 +3959,10 @@
         <v>24.169</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S14">
         <v>2</v>
@@ -5957,10 +4010,10 @@
         <v>7500</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -6008,10 +4061,10 @@
         <v>5625</v>
       </c>
       <c r="Q16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -6059,10 +4112,10 @@
         <v>3750</v>
       </c>
       <c r="Q17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -6110,10 +4163,10 @@
         <v>1875</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -6161,10 +4214,10 @@
         <v>937.5</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -6212,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -6244,10 +4297,10 @@
     </row>
     <row r="21" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -6276,10 +4329,10 @@
     </row>
     <row r="22" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -6308,10 +4361,10 @@
     </row>
     <row r="23" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S23">
         <v>3</v>
@@ -6340,10 +4393,10 @@
     </row>
     <row r="24" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -6372,10 +4425,10 @@
     </row>
     <row r="25" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S25">
         <v>3</v>
@@ -6404,10 +4457,10 @@
     </row>
     <row r="26" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S26">
         <v>3</v>
@@ -6436,10 +4489,10 @@
     </row>
     <row r="27" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -6468,10 +4521,10 @@
     </row>
     <row r="28" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -6500,10 +4553,10 @@
     </row>
     <row r="29" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -6532,10 +4585,10 @@
     </row>
     <row r="30" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -6564,10 +4617,10 @@
     </row>
     <row r="31" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -6596,10 +4649,10 @@
     </row>
     <row r="32" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -6628,10 +4681,10 @@
     </row>
     <row r="33" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -6660,10 +4713,10 @@
     </row>
     <row r="34" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -6692,10 +4745,10 @@
     </row>
     <row r="35" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -6724,10 +4777,10 @@
     </row>
     <row r="36" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -6756,10 +4809,10 @@
     </row>
     <row r="37" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -6788,10 +4841,10 @@
     </row>
     <row r="38" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -6820,10 +4873,10 @@
     </row>
     <row r="39" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S39">
         <v>3</v>
@@ -6852,10 +4905,10 @@
     </row>
     <row r="40" spans="17:25" x14ac:dyDescent="0.25">
       <c r="Q40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S40">
         <v>3</v>
@@ -6880,2288 +4933,6 @@
       <c r="Y40">
         <f t="shared" si="10"/>
         <v>2860.5251538000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:N9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:N9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C17AE-9DD3-4BBF-81C6-3D2292E059C9}">
-  <dimension ref="A3:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1">
-        <v>10</v>
-      </c>
-      <c r="L14" s="1">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>33022</v>
-      </c>
-      <c r="C15" s="3">
-        <v>34171</v>
-      </c>
-      <c r="D15" s="3">
-        <v>33019</v>
-      </c>
-      <c r="E15" s="3">
-        <v>33421</v>
-      </c>
-      <c r="F15" s="3">
-        <v>34124</v>
-      </c>
-      <c r="G15" s="3">
-        <v>32574</v>
-      </c>
-      <c r="H15" s="3">
-        <v>35412</v>
-      </c>
-      <c r="I15" s="3">
-        <v>35206</v>
-      </c>
-      <c r="J15" s="3">
-        <v>31434</v>
-      </c>
-      <c r="K15" s="3">
-        <v>32426</v>
-      </c>
-      <c r="L15" s="3">
-        <v>36392</v>
-      </c>
-      <c r="M15" s="4">
-        <v>28158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5">
-        <v>31862</v>
-      </c>
-      <c r="C16" s="6">
-        <v>31504</v>
-      </c>
-      <c r="D16" s="6">
-        <v>23098</v>
-      </c>
-      <c r="E16" s="6">
-        <v>31301</v>
-      </c>
-      <c r="F16" s="6">
-        <v>32654</v>
-      </c>
-      <c r="G16" s="6">
-        <v>33684</v>
-      </c>
-      <c r="H16" s="6">
-        <v>34575</v>
-      </c>
-      <c r="I16" s="6">
-        <v>33083</v>
-      </c>
-      <c r="J16" s="6">
-        <v>20951</v>
-      </c>
-      <c r="K16" s="6">
-        <v>33074</v>
-      </c>
-      <c r="L16" s="6">
-        <v>34769</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5">
-        <v>28672</v>
-      </c>
-      <c r="C17" s="6">
-        <v>32502</v>
-      </c>
-      <c r="D17" s="6">
-        <v>14906</v>
-      </c>
-      <c r="E17" s="6">
-        <v>31786</v>
-      </c>
-      <c r="F17" s="6">
-        <v>34896</v>
-      </c>
-      <c r="G17" s="6">
-        <v>33501</v>
-      </c>
-      <c r="H17" s="6">
-        <v>35950</v>
-      </c>
-      <c r="I17" s="6">
-        <v>35422</v>
-      </c>
-      <c r="J17" s="6">
-        <v>27148</v>
-      </c>
-      <c r="K17" s="6">
-        <v>34586</v>
-      </c>
-      <c r="L17" s="6">
-        <v>35919</v>
-      </c>
-      <c r="M17" s="7">
-        <v>35907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5">
-        <v>31383</v>
-      </c>
-      <c r="C18" s="6">
-        <v>25095</v>
-      </c>
-      <c r="D18" s="6">
-        <v>16563</v>
-      </c>
-      <c r="E18" s="6">
-        <v>32664</v>
-      </c>
-      <c r="F18" s="6">
-        <v>36867</v>
-      </c>
-      <c r="G18" s="6">
-        <v>35578</v>
-      </c>
-      <c r="H18" s="6">
-        <v>16098</v>
-      </c>
-      <c r="I18" s="6">
-        <v>15778</v>
-      </c>
-      <c r="J18" s="6">
-        <v>20349</v>
-      </c>
-      <c r="K18" s="6">
-        <v>13777</v>
-      </c>
-      <c r="L18" s="6">
-        <v>38424</v>
-      </c>
-      <c r="M18" s="7">
-        <v>36425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5">
-        <v>29992</v>
-      </c>
-      <c r="C19" s="6">
-        <v>23547</v>
-      </c>
-      <c r="D19" s="6">
-        <v>17811</v>
-      </c>
-      <c r="E19" s="6">
-        <v>14465</v>
-      </c>
-      <c r="F19" s="6">
-        <v>36197</v>
-      </c>
-      <c r="G19" s="6">
-        <v>36513</v>
-      </c>
-      <c r="H19" s="6">
-        <v>32830</v>
-      </c>
-      <c r="I19" s="6">
-        <v>27228</v>
-      </c>
-      <c r="J19" s="6">
-        <v>23092</v>
-      </c>
-      <c r="K19" s="6">
-        <v>23588</v>
-      </c>
-      <c r="L19" s="6">
-        <v>39238</v>
-      </c>
-      <c r="M19" s="7">
-        <v>40797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5">
-        <v>27760</v>
-      </c>
-      <c r="C20" s="6">
-        <v>30980</v>
-      </c>
-      <c r="D20" s="6">
-        <v>19948</v>
-      </c>
-      <c r="E20" s="6">
-        <v>17070</v>
-      </c>
-      <c r="F20" s="6">
-        <v>36573</v>
-      </c>
-      <c r="G20" s="6">
-        <v>37078</v>
-      </c>
-      <c r="H20" s="6">
-        <v>37009</v>
-      </c>
-      <c r="I20" s="6">
-        <v>38925</v>
-      </c>
-      <c r="J20" s="6">
-        <v>18985</v>
-      </c>
-      <c r="K20" s="6">
-        <v>27612</v>
-      </c>
-      <c r="L20" s="6">
-        <v>39901</v>
-      </c>
-      <c r="M20" s="7">
-        <v>40870</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5">
-        <v>149895</v>
-      </c>
-      <c r="C21" s="6">
-        <v>123081</v>
-      </c>
-      <c r="D21" s="6">
-        <v>90707</v>
-      </c>
-      <c r="E21" s="6">
-        <v>73883</v>
-      </c>
-      <c r="F21" s="6">
-        <v>49880</v>
-      </c>
-      <c r="G21" s="6">
-        <v>27123</v>
-      </c>
-      <c r="H21" s="6">
-        <v>14648</v>
-      </c>
-      <c r="I21" s="6">
-        <v>55</v>
-      </c>
-      <c r="J21" s="6">
-        <v>51</v>
-      </c>
-      <c r="K21" s="6">
-        <v>118</v>
-      </c>
-      <c r="L21" s="6">
-        <v>38149</v>
-      </c>
-      <c r="M21" s="7">
-        <v>37132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8">
-        <v>160522</v>
-      </c>
-      <c r="C22" s="9">
-        <v>124536</v>
-      </c>
-      <c r="D22" s="9">
-        <v>89572</v>
-      </c>
-      <c r="E22" s="9">
-        <v>75028</v>
-      </c>
-      <c r="F22" s="9">
-        <v>49819</v>
-      </c>
-      <c r="G22" s="9">
-        <v>26674</v>
-      </c>
-      <c r="H22" s="9">
-        <v>14244</v>
-      </c>
-      <c r="I22" s="9">
-        <v>12</v>
-      </c>
-      <c r="J22" s="9">
-        <v>18</v>
-      </c>
-      <c r="K22" s="9">
-        <v>86</v>
-      </c>
-      <c r="L22" s="9">
-        <v>45786</v>
-      </c>
-      <c r="M22" s="10">
-        <v>41886</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85830A-4DDD-46E7-8669-F9F916C020C9}">
-  <dimension ref="C1:AB40"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>33022</v>
-      </c>
-      <c r="D2">
-        <v>34171</v>
-      </c>
-      <c r="E2">
-        <v>33019</v>
-      </c>
-      <c r="F2">
-        <v>33421</v>
-      </c>
-      <c r="G2">
-        <v>34124</v>
-      </c>
-      <c r="H2">
-        <v>32574</v>
-      </c>
-      <c r="I2">
-        <v>35412</v>
-      </c>
-      <c r="J2">
-        <v>35206</v>
-      </c>
-      <c r="K2">
-        <v>31434</v>
-      </c>
-      <c r="L2">
-        <v>32426</v>
-      </c>
-      <c r="M2">
-        <v>36392</v>
-      </c>
-      <c r="N2">
-        <v>28158</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>31862</v>
-      </c>
-      <c r="D3">
-        <v>31504</v>
-      </c>
-      <c r="E3">
-        <v>23098</v>
-      </c>
-      <c r="F3">
-        <v>31301</v>
-      </c>
-      <c r="G3">
-        <v>32654</v>
-      </c>
-      <c r="H3">
-        <v>33684</v>
-      </c>
-      <c r="I3">
-        <v>34575</v>
-      </c>
-      <c r="J3">
-        <v>33083</v>
-      </c>
-      <c r="K3">
-        <v>20951</v>
-      </c>
-      <c r="L3">
-        <v>33074</v>
-      </c>
-      <c r="M3">
-        <v>34769</v>
-      </c>
-      <c r="N3">
-        <v>33928</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3">
-        <v>33022</v>
-      </c>
-      <c r="V3">
-        <v>34171</v>
-      </c>
-      <c r="W3">
-        <f>AVERAGE(U3:V3)</f>
-        <v>33596.5</v>
-      </c>
-      <c r="X3">
-        <f>W3-$G$20</f>
-        <v>33539.833333333336</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y40" si="0">$N$12*(X3*X3)+$N$13*(X3)+$N$14</f>
-        <v>2314.3330506722223</v>
-      </c>
-    </row>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>28672</v>
-      </c>
-      <c r="D4">
-        <v>32502</v>
-      </c>
-      <c r="E4">
-        <v>14906</v>
-      </c>
-      <c r="F4">
-        <v>31786</v>
-      </c>
-      <c r="G4">
-        <v>34896</v>
-      </c>
-      <c r="H4">
-        <v>33501</v>
-      </c>
-      <c r="I4">
-        <v>35950</v>
-      </c>
-      <c r="J4">
-        <v>35422</v>
-      </c>
-      <c r="K4">
-        <v>27148</v>
-      </c>
-      <c r="L4">
-        <v>34586</v>
-      </c>
-      <c r="M4">
-        <v>35919</v>
-      </c>
-      <c r="N4">
-        <v>35907</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>31862</v>
-      </c>
-      <c r="V4">
-        <v>31504</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W40" si="1">AVERAGE(U4:V4)</f>
-        <v>31683</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X40" si="2">W4-$G$20</f>
-        <v>31626.333333333332</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>2170.756958688889</v>
-      </c>
-    </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>31383</v>
-      </c>
-      <c r="D5">
-        <v>25095</v>
-      </c>
-      <c r="E5">
-        <v>16563</v>
-      </c>
-      <c r="F5">
-        <v>32664</v>
-      </c>
-      <c r="G5">
-        <v>36867</v>
-      </c>
-      <c r="H5">
-        <v>35578</v>
-      </c>
-      <c r="I5">
-        <v>16098</v>
-      </c>
-      <c r="J5">
-        <v>15778</v>
-      </c>
-      <c r="K5">
-        <v>20349</v>
-      </c>
-      <c r="L5">
-        <v>13777</v>
-      </c>
-      <c r="M5">
-        <v>38424</v>
-      </c>
-      <c r="N5">
-        <v>36425</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>28672</v>
-      </c>
-      <c r="V5">
-        <v>32502</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
-        <v>30587</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
-        <v>30530.333333333332</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>2089.1802173555557</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5">
-        <f>AVERAGE(Y3:Y8)</f>
-        <v>2049.7088840499996</v>
-      </c>
-    </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>29992</v>
-      </c>
-      <c r="D6">
-        <v>23547</v>
-      </c>
-      <c r="E6">
-        <v>17811</v>
-      </c>
-      <c r="F6">
-        <v>14465</v>
-      </c>
-      <c r="G6">
-        <v>36197</v>
-      </c>
-      <c r="H6">
-        <v>36513</v>
-      </c>
-      <c r="I6">
-        <v>32830</v>
-      </c>
-      <c r="J6">
-        <v>27228</v>
-      </c>
-      <c r="K6">
-        <v>23092</v>
-      </c>
-      <c r="L6">
-        <v>23588</v>
-      </c>
-      <c r="M6">
-        <v>39238</v>
-      </c>
-      <c r="N6">
-        <v>40797</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>31383</v>
-      </c>
-      <c r="V6">
-        <v>25095</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>28239</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
-        <v>28182.333333333332</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>1916.032749088889</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6">
-        <f>AVERAGE(Y9:Y14)</f>
-        <v>1603.6702692277779</v>
-      </c>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>27760</v>
-      </c>
-      <c r="D7">
-        <v>30980</v>
-      </c>
-      <c r="E7">
-        <v>19948</v>
-      </c>
-      <c r="F7">
-        <v>17070</v>
-      </c>
-      <c r="G7">
-        <v>36573</v>
-      </c>
-      <c r="H7">
-        <v>37078</v>
-      </c>
-      <c r="I7">
-        <v>37009</v>
-      </c>
-      <c r="J7">
-        <v>38925</v>
-      </c>
-      <c r="K7">
-        <v>18985</v>
-      </c>
-      <c r="L7">
-        <v>27612</v>
-      </c>
-      <c r="M7">
-        <v>39901</v>
-      </c>
-      <c r="N7">
-        <v>40870</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>29992</v>
-      </c>
-      <c r="V7">
-        <v>23547</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>26769.5</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>26712.833333333332</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>1808.7900596055554</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7">
-        <f>AVERAGE(Y15:Y20)</f>
-        <v>2422.5326156361111</v>
-      </c>
-    </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>149895</v>
-      </c>
-      <c r="D8">
-        <v>123081</v>
-      </c>
-      <c r="E8">
-        <v>90707</v>
-      </c>
-      <c r="F8">
-        <v>73883</v>
-      </c>
-      <c r="G8">
-        <v>49880</v>
-      </c>
-      <c r="H8">
-        <v>27123</v>
-      </c>
-      <c r="I8">
-        <v>14648</v>
-      </c>
-      <c r="J8">
-        <v>55</v>
-      </c>
-      <c r="K8">
-        <v>51</v>
-      </c>
-      <c r="L8">
-        <v>118</v>
-      </c>
-      <c r="M8">
-        <v>38149</v>
-      </c>
-      <c r="N8">
-        <v>37132</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>27760</v>
-      </c>
-      <c r="V8">
-        <v>30980</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>29370</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>29313.333333333332</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>1999.1602688888888</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB8">
-        <f>AVERAGE(Y21:Y26)</f>
-        <v>2164.8818928444448</v>
-      </c>
-    </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>160522</v>
-      </c>
-      <c r="D9">
-        <v>124536</v>
-      </c>
-      <c r="E9">
-        <v>89572</v>
-      </c>
-      <c r="F9">
-        <v>75028</v>
-      </c>
-      <c r="G9">
-        <v>49819</v>
-      </c>
-      <c r="H9">
-        <v>26674</v>
-      </c>
-      <c r="I9">
-        <v>14244</v>
-      </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <v>86</v>
-      </c>
-      <c r="M9">
-        <v>45786</v>
-      </c>
-      <c r="N9">
-        <v>41886</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>33019</v>
-      </c>
-      <c r="V9">
-        <v>33421</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>33220</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="2"/>
-        <v>33163.333333333336</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>2285.9673022222228</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB9">
-        <f>AVERAGE(Y27:Y32)</f>
-        <v>1728.0901256611112</v>
-      </c>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="Q10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>23098</v>
-      </c>
-      <c r="V10">
-        <v>31301</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>27199.5</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="2"/>
-        <v>27142.833333333332</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>1840.0816469388888</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB10">
-        <f>AVERAGE(Y33:Y38)</f>
-        <v>2554.1028147666671</v>
-      </c>
-    </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="N11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11" t="s">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>14906</v>
-      </c>
-      <c r="V11">
-        <v>31786</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>23346</v>
-      </c>
-      <c r="X11">
-        <f>W11-$G$20</f>
-        <v>23289.333333333332</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>1562.296576088889</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB11">
-        <f>AVERAGE(Y39:Y40)</f>
-        <v>2865.0549221805559</v>
-      </c>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="11">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>16563</v>
-      </c>
-      <c r="V12">
-        <v>32664</v>
-      </c>
-      <c r="W12">
-        <f>AVERAGE(U12:V12)</f>
-        <v>24613.5</v>
-      </c>
-      <c r="X12">
-        <f>W12-$G$20</f>
-        <v>24556.833333333332</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>1653.0105793388886</v>
-      </c>
-    </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <f>C8</f>
-        <v>149895</v>
-      </c>
-      <c r="F13">
-        <f>C9</f>
-        <v>160522</v>
-      </c>
-      <c r="G13">
-        <f>AVERAGE(E13:F13)</f>
-        <v>155208.5</v>
-      </c>
-      <c r="H13">
-        <f>G13-$G$20</f>
-        <v>155151.83333333334</v>
-      </c>
-      <c r="I13">
-        <v>15000</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13">
-        <v>6.2E-2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13" t="s">
-        <v>4</v>
-      </c>
-      <c r="U13">
-        <v>17811</v>
-      </c>
-      <c r="V13">
-        <v>14465</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>16138</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="2"/>
-        <v>16081.333333333334</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>1058.6438230222223</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f>D8</f>
-        <v>123081</v>
-      </c>
-      <c r="F14">
-        <f>D9</f>
-        <v>124536</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G20" si="3">AVERAGE(E14:F14)</f>
-        <v>123808.5</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H20" si="4">G14-$G$20</f>
-        <v>123751.83333333333</v>
-      </c>
-      <c r="I14">
-        <v>11250</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14">
-        <v>9.8793000000000006</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14">
-        <v>19948</v>
-      </c>
-      <c r="V14">
-        <v>17070</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>18509</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="2"/>
-        <v>18452.333333333332</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>1222.0216877555556</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <f>E8</f>
-        <v>90707</v>
-      </c>
-      <c r="F15">
-        <f>E9</f>
-        <v>89572</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>90139.5</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>90082.833333333328</v>
-      </c>
-      <c r="I15">
-        <v>7500</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15">
-        <v>34124</v>
-      </c>
-      <c r="V15">
-        <v>32574</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>33349</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="2"/>
-        <v>33292.333333333336</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>2295.6798584222224</v>
-      </c>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f>F8</f>
-        <v>73883</v>
-      </c>
-      <c r="F16">
-        <f>F9</f>
-        <v>75028</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>74455.5</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>74398.833333333328</v>
-      </c>
-      <c r="I16">
-        <v>5625</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>4</v>
-      </c>
-      <c r="U16">
-        <v>32654</v>
-      </c>
-      <c r="V16">
-        <v>33684</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>33169</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="2"/>
-        <v>33112.333333333336</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>2282.1292904222223</v>
-      </c>
-    </row>
-    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f>G8</f>
-        <v>49880</v>
-      </c>
-      <c r="F17">
-        <f>G9</f>
-        <v>49819</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>49849.5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>49792.833333333336</v>
-      </c>
-      <c r="I17">
-        <v>3750</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17">
-        <v>34896</v>
-      </c>
-      <c r="V17">
-        <v>33501</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>34198.5</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="2"/>
-        <v>34141.833333333336</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>2359.805923338889</v>
-      </c>
-    </row>
-    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <f>H8</f>
-        <v>27123</v>
-      </c>
-      <c r="F18">
-        <f>H9</f>
-        <v>26674</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>26898.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>26841.833333333332</v>
-      </c>
-      <c r="I18">
-        <v>1875</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18">
-        <v>36867</v>
-      </c>
-      <c r="V18">
-        <v>35578</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>36222.5</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="2"/>
-        <v>36165.833333333336</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>2513.7544668055557</v>
-      </c>
-    </row>
-    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <f>I8</f>
-        <v>14648</v>
-      </c>
-      <c r="F19">
-        <f>I9</f>
-        <v>14244</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>14446</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>14389.333333333334</v>
-      </c>
-      <c r="I19">
-        <v>937.5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>54</v>
-      </c>
-      <c r="R19" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
-        <v>4</v>
-      </c>
-      <c r="U19">
-        <v>36197</v>
-      </c>
-      <c r="V19">
-        <v>36513</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
-        <v>36355</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="2"/>
-        <v>36298.333333333336</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>2523.8897672222224</v>
-      </c>
-    </row>
-    <row r="20" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <f>AVERAGE(J8:L8)</f>
-        <v>74.666666666666671</v>
-      </c>
-      <c r="F20">
-        <f>AVERAGE(J9:L9)</f>
-        <v>38.666666666666664</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>56.666666666666671</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>55</v>
-      </c>
-      <c r="R20" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>36573</v>
-      </c>
-      <c r="V20">
-        <v>37078</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
-        <v>36825.5</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="2"/>
-        <v>36768.833333333336</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>2559.9363876055559</v>
-      </c>
-    </row>
-    <row r="21" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q21" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21">
-        <v>35412</v>
-      </c>
-      <c r="V21">
-        <v>35206</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="1"/>
-        <v>35309</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="2"/>
-        <v>35252.333333333336</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>2444.0693677555555</v>
-      </c>
-    </row>
-    <row r="22" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q22" t="s">
-        <v>57</v>
-      </c>
-      <c r="R22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
-      </c>
-      <c r="T22" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22">
-        <v>34575</v>
-      </c>
-      <c r="V22">
-        <v>33083</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>33829</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="2"/>
-        <v>33772.333333333336</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>2331.8780664222227</v>
-      </c>
-    </row>
-    <row r="23" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q23" t="s">
-        <v>58</v>
-      </c>
-      <c r="R23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="T23" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23">
-        <v>35950</v>
-      </c>
-      <c r="V23">
-        <v>35422</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>35686</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="2"/>
-        <v>35629.333333333336</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>2472.7878454222223</v>
-      </c>
-    </row>
-    <row r="24" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q24" t="s">
-        <v>59</v>
-      </c>
-      <c r="R24" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24">
-        <v>16098</v>
-      </c>
-      <c r="V24">
-        <v>15778</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>15938</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="2"/>
-        <v>15881.333333333334</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>1044.9653163555556</v>
-      </c>
-    </row>
-    <row r="25" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q25" t="s">
-        <v>60</v>
-      </c>
-      <c r="R25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25" t="s">
-        <v>5</v>
-      </c>
-      <c r="U25">
-        <v>32830</v>
-      </c>
-      <c r="V25">
-        <v>27228</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>30029</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
-        <v>29972.333333333332</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>2047.8321197555556</v>
-      </c>
-    </row>
-    <row r="26" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q26" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" t="s">
-        <v>34</v>
-      </c>
-      <c r="S26">
-        <v>3</v>
-      </c>
-      <c r="T26" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26">
-        <v>37009</v>
-      </c>
-      <c r="V26">
-        <v>38925</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>37967</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="2"/>
-        <v>37910.333333333336</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>2647.7586413555559</v>
-      </c>
-    </row>
-    <row r="27" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" t="s">
-        <v>29</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27">
-        <v>31434</v>
-      </c>
-      <c r="V27">
-        <v>32426</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>31930</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="2"/>
-        <v>31873.333333333332</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>2189.2078422222221</v>
-      </c>
-    </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q28" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28" t="s">
-        <v>5</v>
-      </c>
-      <c r="U28">
-        <v>20951</v>
-      </c>
-      <c r="V28">
-        <v>33074</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>27012.5</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="2"/>
-        <v>26955.833333333332</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>1826.4643568055556</v>
-      </c>
-    </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q29" t="s">
-        <v>64</v>
-      </c>
-      <c r="R29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29">
-        <v>27148</v>
-      </c>
-      <c r="V29">
-        <v>34586</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>30867</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="2"/>
-        <v>30810.333333333332</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>2109.9752946888889</v>
-      </c>
-    </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q30" t="s">
-        <v>65</v>
-      </c>
-      <c r="R30" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30" t="s">
-        <v>5</v>
-      </c>
-      <c r="U30">
-        <v>20349</v>
-      </c>
-      <c r="V30">
-        <v>13777</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>17063</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="2"/>
-        <v>17006.333333333332</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>1122.1150413555556</v>
-      </c>
-    </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q31" t="s">
-        <v>66</v>
-      </c>
-      <c r="R31" t="s">
-        <v>33</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31" t="s">
-        <v>5</v>
-      </c>
-      <c r="U31">
-        <v>23092</v>
-      </c>
-      <c r="V31">
-        <v>23588</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="1"/>
-        <v>23340</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="2"/>
-        <v>23283.333333333332</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="0"/>
-        <v>1561.8686888888888</v>
-      </c>
-    </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="Q32" t="s">
-        <v>67</v>
-      </c>
-      <c r="R32" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32">
-        <v>18985</v>
-      </c>
-      <c r="V32">
-        <v>27612</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="1"/>
-        <v>23298.5</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="2"/>
-        <v>23241.833333333332</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>1558.9095300055556</v>
-      </c>
-    </row>
-    <row r="33" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R33" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33">
-        <v>36392</v>
-      </c>
-      <c r="V33">
-        <v>28158</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="1"/>
-        <v>32275</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="2"/>
-        <v>32218.333333333332</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="0"/>
-        <v>2215.0201672222224</v>
-      </c>
-    </row>
-    <row r="34" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q34" t="s">
-        <v>69</v>
-      </c>
-      <c r="R34" t="s">
-        <v>30</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34" t="s">
-        <v>5</v>
-      </c>
-      <c r="U34">
-        <v>34769</v>
-      </c>
-      <c r="V34">
-        <v>33928</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="1"/>
-        <v>34348.5</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="2"/>
-        <v>34291.833333333336</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>2371.1589333388888</v>
-      </c>
-    </row>
-    <row r="35" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q35" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" t="s">
-        <v>31</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35">
-        <v>35919</v>
-      </c>
-      <c r="V35">
-        <v>35907</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="1"/>
-        <v>35913</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="2"/>
-        <v>35856.333333333336</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>2490.1072946888894</v>
-      </c>
-    </row>
-    <row r="36" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q36" t="s">
-        <v>71</v>
-      </c>
-      <c r="R36" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="T36" t="s">
-        <v>5</v>
-      </c>
-      <c r="U36">
-        <v>38424</v>
-      </c>
-      <c r="V36">
-        <v>36425</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="1"/>
-        <v>37424.5</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="2"/>
-        <v>37367.833333333336</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>2605.9559602722225</v>
-      </c>
-    </row>
-    <row r="37" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q37" t="s">
-        <v>72</v>
-      </c>
-      <c r="R37" t="s">
-        <v>33</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37" t="s">
-        <v>5</v>
-      </c>
-      <c r="U37">
-        <v>39238</v>
-      </c>
-      <c r="V37">
-        <v>40797</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="1"/>
-        <v>40017.5</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="2"/>
-        <v>39960.833333333336</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>2806.8246068055555</v>
-      </c>
-    </row>
-    <row r="38" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q38" t="s">
-        <v>73</v>
-      </c>
-      <c r="R38" t="s">
-        <v>34</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38" t="s">
-        <v>5</v>
-      </c>
-      <c r="U38">
-        <v>39901</v>
-      </c>
-      <c r="V38">
-        <v>40870</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="1"/>
-        <v>40385.5</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="2"/>
-        <v>40328.833333333336</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>2835.5499262722228</v>
-      </c>
-    </row>
-    <row r="39" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s">
-        <v>36</v>
-      </c>
-      <c r="S39">
-        <v>3</v>
-      </c>
-      <c r="T39" t="s">
-        <v>5</v>
-      </c>
-      <c r="U39">
-        <v>38149</v>
-      </c>
-      <c r="V39">
-        <v>37132</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="1"/>
-        <v>37640.5</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="2"/>
-        <v>37583.833333333336</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>2622.5858722722228</v>
-      </c>
-    </row>
-    <row r="40" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q40" t="s">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s">
-        <v>36</v>
-      </c>
-      <c r="S40">
-        <v>3</v>
-      </c>
-      <c r="T40" t="s">
-        <v>5</v>
-      </c>
-      <c r="U40">
-        <v>45786</v>
-      </c>
-      <c r="V40">
-        <v>41886</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="1"/>
-        <v>43836</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="2"/>
-        <v>43779.333333333336</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>3107.5239720888894</v>
       </c>
     </row>
   </sheetData>
